--- a/data/analysis/social_media_analytics/pivot_over_time/pivot_over_time-twitter_by_size-M-data.xlsx
+++ b/data/analysis/social_media_analytics/pivot_over_time/pivot_over_time-twitter_by_size-M-data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="14">
   <si>
     <t>count</t>
   </si>
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,13 +448,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2828</v>
+        <v>2796</v>
       </c>
       <c r="B2">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0313</v>
+        <v>0.0254</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2781</v>
+        <v>2737</v>
       </c>
       <c r="B3">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.0308</v>
+        <v>0.0249</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -494,13 +494,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3054</v>
+        <v>3020</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.0338</v>
+        <v>0.0275</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -517,13 +517,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2710</v>
+        <v>2671</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.03</v>
+        <v>0.0243</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -540,13 +540,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2957</v>
+        <v>2919</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.0327</v>
+        <v>0.0266</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>3087</v>
+        <v>3061</v>
       </c>
       <c r="B7">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.0342</v>
+        <v>0.0279</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -586,13 +586,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2780</v>
+        <v>2767</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0.0308</v>
+        <v>0.0252</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -609,13 +609,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>2820</v>
+        <v>2809</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.0312</v>
+        <v>0.0256</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>1965</v>
+        <v>1947</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.0218</v>
+        <v>0.0177</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -655,13 +655,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>2736</v>
+        <v>2692</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.0303</v>
+        <v>0.0245</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -678,13 +678,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>1731</v>
+        <v>1702</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>0.0192</v>
+        <v>0.0155</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -701,13 +701,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>1630</v>
+        <v>1598</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13">
-        <v>0.0181</v>
+        <v>0.0145</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -724,13 +724,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>2394</v>
+        <v>2386</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14">
-        <v>0.0265</v>
+        <v>0.0217</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -747,13 +747,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2375</v>
+        <v>2348</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>0.0263</v>
+        <v>0.0214</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -770,13 +770,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>3741</v>
+        <v>3667</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
       <c r="C16">
-        <v>0.0414</v>
+        <v>0.0334</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>3881</v>
+        <v>3834</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
       <c r="C17">
-        <v>0.043</v>
+        <v>0.0349</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -816,13 +816,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>3993</v>
+        <v>3937</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.0442</v>
+        <v>0.0358</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -839,13 +839,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>3014</v>
+        <v>2951</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.0334</v>
+        <v>0.0269</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>2544</v>
+        <v>2510</v>
       </c>
       <c r="B20">
         <v>9</v>
       </c>
       <c r="C20">
-        <v>0.0282</v>
+        <v>0.0228</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>2465</v>
+        <v>2405</v>
       </c>
       <c r="B21">
         <v>9</v>
       </c>
       <c r="C21">
-        <v>0.0273</v>
+        <v>0.0219</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -908,13 +908,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>3086</v>
+        <v>3027</v>
       </c>
       <c r="B22">
         <v>9</v>
       </c>
       <c r="C22">
-        <v>0.0342</v>
+        <v>0.0275</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -931,13 +931,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>3032</v>
+        <v>2996</v>
       </c>
       <c r="B23">
         <v>9</v>
       </c>
       <c r="C23">
-        <v>0.0336</v>
+        <v>0.0273</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -954,13 +954,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>2420</v>
+        <v>2374</v>
       </c>
       <c r="B24">
         <v>9</v>
       </c>
       <c r="C24">
-        <v>0.0268</v>
+        <v>0.0216</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -977,13 +977,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>1903</v>
+        <v>1863</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
       <c r="C25">
-        <v>0.0211</v>
+        <v>0.017</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1000,13 +1000,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>3335</v>
+        <v>3264</v>
       </c>
       <c r="B26">
         <v>8</v>
       </c>
       <c r="C26">
-        <v>0.0369</v>
+        <v>0.0297</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>1933</v>
+        <v>1897</v>
       </c>
       <c r="B27">
         <v>9</v>
       </c>
       <c r="C27">
-        <v>0.0214</v>
+        <v>0.0173</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>2288</v>
+        <v>2262</v>
       </c>
       <c r="B28">
         <v>8</v>
       </c>
       <c r="C28">
-        <v>0.0253</v>
+        <v>0.0206</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1069,13 +1069,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>2351</v>
+        <v>2276</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
       <c r="C29">
-        <v>0.026</v>
+        <v>0.0207</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1092,13 +1092,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>2832</v>
+        <v>2765</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
       <c r="C30">
-        <v>0.0314</v>
+        <v>0.0252</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>3708</v>
+        <v>3593</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31">
-        <v>0.0411</v>
+        <v>0.0327</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1138,13 +1138,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>2794</v>
+        <v>2679</v>
       </c>
       <c r="B32">
         <v>9</v>
       </c>
       <c r="C32">
-        <v>0.0309</v>
+        <v>0.0244</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>2601</v>
+        <v>2533</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
       <c r="C33">
-        <v>0.0288</v>
+        <v>0.0231</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1184,13 +1184,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>2525</v>
+        <v>2459</v>
       </c>
       <c r="B34">
         <v>9</v>
       </c>
       <c r="C34">
-        <v>0.028</v>
+        <v>0.0224</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1207,197 +1207,197 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>32879</v>
+        <v>2502</v>
       </c>
       <c r="B35">
-        <v>387</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>0.0299</v>
+        <v>0.0228</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="2">
-        <v>43496</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>32616</v>
+        <v>2595</v>
       </c>
       <c r="B36">
-        <v>391</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>0.0297</v>
+        <v>0.0236</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="2">
-        <v>43524</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>34246</v>
+        <v>2659</v>
       </c>
       <c r="B37">
-        <v>387</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>0.0311</v>
+        <v>0.0242</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="2">
-        <v>43555</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>34206</v>
+        <v>2075</v>
       </c>
       <c r="B38">
-        <v>399</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>0.0311</v>
+        <v>0.0189</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="2">
-        <v>43585</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>36598</v>
+        <v>2329</v>
       </c>
       <c r="B39">
-        <v>396</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>0.0333</v>
+        <v>0.0212</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="2">
-        <v>43616</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>35034</v>
+        <v>2496</v>
       </c>
       <c r="B40">
-        <v>396</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>0.0319</v>
+        <v>0.0227</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="2">
-        <v>43646</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>33498</v>
+        <v>2887</v>
       </c>
       <c r="B41">
-        <v>388</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>0.0305</v>
+        <v>0.0263</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="2">
-        <v>43677</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>33009</v>
+        <v>3599</v>
       </c>
       <c r="B42">
-        <v>389</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>0.03</v>
+        <v>0.0328</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="2">
-        <v>43708</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>31274</v>
+        <v>32496</v>
       </c>
       <c r="B43">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C43">
-        <v>0.0284</v>
+        <v>0.0252</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1409,18 +1409,18 @@
         <v>13</v>
       </c>
       <c r="G43" s="2">
-        <v>43738</v>
+        <v>43496</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>35260</v>
+        <v>32138</v>
       </c>
       <c r="B44">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C44">
-        <v>0.0321</v>
+        <v>0.0249</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1432,18 +1432,18 @@
         <v>13</v>
       </c>
       <c r="G44" s="2">
-        <v>43769</v>
+        <v>43524</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>32598</v>
+        <v>33884</v>
       </c>
       <c r="B45">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C45">
-        <v>0.0296</v>
+        <v>0.0262</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1455,18 +1455,18 @@
         <v>13</v>
       </c>
       <c r="G45" s="2">
-        <v>43799</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>25800</v>
+        <v>33854</v>
       </c>
       <c r="B46">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C46">
-        <v>0.0235</v>
+        <v>0.0262</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1478,18 +1478,18 @@
         <v>13</v>
       </c>
       <c r="G46" s="2">
-        <v>43830</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>27483</v>
+        <v>36235</v>
       </c>
       <c r="B47">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C47">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1501,18 +1501,18 @@
         <v>13</v>
       </c>
       <c r="G47" s="2">
-        <v>43861</v>
+        <v>43616</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>28313</v>
+        <v>34769</v>
       </c>
       <c r="B48">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C48">
-        <v>0.0257</v>
+        <v>0.0269</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1524,18 +1524,18 @@
         <v>13</v>
       </c>
       <c r="G48" s="2">
-        <v>43890</v>
+        <v>43646</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>35955</v>
+        <v>33188</v>
       </c>
       <c r="B49">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C49">
-        <v>0.0327</v>
+        <v>0.0257</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1547,18 +1547,18 @@
         <v>13</v>
       </c>
       <c r="G49" s="2">
-        <v>43921</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>53651</v>
+        <v>32673</v>
       </c>
       <c r="B50">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C50">
-        <v>0.0488</v>
+        <v>0.0253</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1570,18 +1570,18 @@
         <v>13</v>
       </c>
       <c r="G50" s="2">
-        <v>43951</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>47972</v>
+        <v>30976</v>
       </c>
       <c r="B51">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="C51">
-        <v>0.0436</v>
+        <v>0.024</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -1593,18 +1593,18 @@
         <v>13</v>
       </c>
       <c r="G51" s="2">
-        <v>43982</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>38963</v>
+        <v>34871</v>
       </c>
       <c r="B52">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="C52">
-        <v>0.0354</v>
+        <v>0.027</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1616,18 +1616,18 @@
         <v>13</v>
       </c>
       <c r="G52" s="2">
-        <v>44012</v>
+        <v>43769</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>37317</v>
+        <v>32337</v>
       </c>
       <c r="B53">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C53">
-        <v>0.0339</v>
+        <v>0.025</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -1639,18 +1639,18 @@
         <v>13</v>
       </c>
       <c r="G53" s="2">
-        <v>44043</v>
+        <v>43799</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>32001</v>
+        <v>25518</v>
       </c>
       <c r="B54">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C54">
-        <v>0.0291</v>
+        <v>0.0198</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1662,18 +1662,18 @@
         <v>13</v>
       </c>
       <c r="G54" s="2">
-        <v>44074</v>
+        <v>43830</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>33279</v>
+        <v>27202</v>
       </c>
       <c r="B55">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C55">
-        <v>0.0303</v>
+        <v>0.0211</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1685,18 +1685,18 @@
         <v>13</v>
       </c>
       <c r="G55" s="2">
-        <v>44104</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>37637</v>
+        <v>27817</v>
       </c>
       <c r="B56">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C56">
-        <v>0.0342</v>
+        <v>0.0215</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -1708,18 +1708,18 @@
         <v>13</v>
       </c>
       <c r="G56" s="2">
-        <v>44135</v>
+        <v>43890</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>29771</v>
+        <v>35427</v>
       </c>
       <c r="B57">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C57">
-        <v>0.0271</v>
+        <v>0.0274</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1731,18 +1731,18 @@
         <v>13</v>
       </c>
       <c r="G57" s="2">
-        <v>44165</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>28059</v>
+        <v>53022</v>
       </c>
       <c r="B58">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C58">
-        <v>0.0255</v>
+        <v>0.041</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -1754,18 +1754,18 @@
         <v>13</v>
       </c>
       <c r="G58" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>30332</v>
+        <v>47308</v>
       </c>
       <c r="B59">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C59">
-        <v>0.0276</v>
+        <v>0.0366</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1777,18 +1777,18 @@
         <v>13</v>
       </c>
       <c r="G59" s="2">
-        <v>44227</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>33664</v>
+        <v>38389</v>
       </c>
       <c r="B60">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C60">
-        <v>0.0306</v>
+        <v>0.0297</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1800,18 +1800,18 @@
         <v>13</v>
       </c>
       <c r="G60" s="2">
-        <v>44255</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>34521</v>
+        <v>36722</v>
       </c>
       <c r="B61">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C61">
-        <v>0.0314</v>
+        <v>0.0284</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1823,18 +1823,18 @@
         <v>13</v>
       </c>
       <c r="G61" s="2">
-        <v>44286</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>29770</v>
+        <v>31452</v>
       </c>
       <c r="B62">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C62">
-        <v>0.0271</v>
+        <v>0.0243</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1846,18 +1846,18 @@
         <v>13</v>
       </c>
       <c r="G62" s="2">
-        <v>44316</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>31799</v>
+        <v>32694</v>
       </c>
       <c r="B63">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C63">
-        <v>0.0289</v>
+        <v>0.0253</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -1869,18 +1869,18 @@
         <v>13</v>
       </c>
       <c r="G63" s="2">
-        <v>44347</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>29859</v>
+        <v>37048</v>
       </c>
       <c r="B64">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C64">
-        <v>0.0271</v>
+        <v>0.0287</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1892,18 +1892,18 @@
         <v>13</v>
       </c>
       <c r="G64" s="2">
-        <v>44377</v>
+        <v>44135</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>29236</v>
+        <v>29405</v>
       </c>
       <c r="B65">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C65">
-        <v>0.0266</v>
+        <v>0.0228</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -1915,18 +1915,18 @@
         <v>13</v>
       </c>
       <c r="G65" s="2">
-        <v>44408</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>26302</v>
+        <v>27653</v>
       </c>
       <c r="B66">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C66">
-        <v>0.0239</v>
+        <v>0.0214</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1938,18 +1938,18 @@
         <v>13</v>
       </c>
       <c r="G66" s="2">
-        <v>44439</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>26950</v>
+        <v>29987</v>
       </c>
       <c r="B67">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C67">
-        <v>0.0245</v>
+        <v>0.0232</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1961,386 +1961,386 @@
         <v>13</v>
       </c>
       <c r="G67" s="2">
-        <v>44469</v>
+        <v>44227</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>27774</v>
+        <v>33023</v>
       </c>
       <c r="B68">
-        <v>515</v>
+        <v>367</v>
       </c>
       <c r="C68">
-        <v>0.0313</v>
+        <v>0.0256</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="2">
-        <v>43496</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>26265</v>
+        <v>34026</v>
       </c>
       <c r="B69">
-        <v>523</v>
+        <v>366</v>
       </c>
       <c r="C69">
-        <v>0.0296</v>
+        <v>0.0263</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="2">
-        <v>43524</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>26688</v>
+        <v>29317</v>
       </c>
       <c r="B70">
-        <v>515</v>
+        <v>369</v>
       </c>
       <c r="C70">
-        <v>0.0301</v>
+        <v>0.0227</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="2">
-        <v>43555</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>25679</v>
+        <v>31241</v>
       </c>
       <c r="B71">
-        <v>537</v>
+        <v>381</v>
       </c>
       <c r="C71">
-        <v>0.0289</v>
+        <v>0.0242</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="2">
-        <v>43585</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>27948</v>
+        <v>29401</v>
       </c>
       <c r="B72">
-        <v>535</v>
+        <v>378</v>
       </c>
       <c r="C72">
-        <v>0.0315</v>
+        <v>0.0228</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
       </c>
       <c r="G72" s="2">
-        <v>43616</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>24019</v>
+        <v>28752</v>
       </c>
       <c r="B73">
-        <v>517</v>
+        <v>380</v>
       </c>
       <c r="C73">
-        <v>0.027</v>
+        <v>0.0223</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="2">
-        <v>43646</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>23841</v>
+        <v>25692</v>
       </c>
       <c r="B74">
-        <v>520</v>
+        <v>378</v>
       </c>
       <c r="C74">
-        <v>0.0268</v>
+        <v>0.0199</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="2">
-        <v>43677</v>
+        <v>44439</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>23982</v>
+        <v>26462</v>
       </c>
       <c r="B75">
-        <v>523</v>
+        <v>370</v>
       </c>
       <c r="C75">
-        <v>0.027</v>
+        <v>0.0205</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="2">
-        <v>43708</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>22800</v>
+        <v>27362</v>
       </c>
       <c r="B76">
-        <v>513</v>
+        <v>380</v>
       </c>
       <c r="C76">
-        <v>0.0257</v>
+        <v>0.0212</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="2">
-        <v>43738</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>25033</v>
+        <v>26095</v>
       </c>
       <c r="B77">
-        <v>514</v>
+        <v>372</v>
       </c>
       <c r="C77">
-        <v>0.0282</v>
+        <v>0.0202</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="2">
-        <v>43769</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>23252</v>
+        <v>25214</v>
       </c>
       <c r="B78">
-        <v>515</v>
+        <v>367</v>
       </c>
       <c r="C78">
-        <v>0.0262</v>
+        <v>0.0195</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="2">
-        <v>43799</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>17861</v>
+        <v>22968</v>
       </c>
       <c r="B79">
-        <v>499</v>
+        <v>381</v>
       </c>
       <c r="C79">
-        <v>0.0201</v>
+        <v>0.0178</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="2">
-        <v>43830</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>21484</v>
+        <v>26056</v>
       </c>
       <c r="B80">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C80">
-        <v>0.0242</v>
+        <v>0.0202</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="2">
-        <v>43861</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>22106</v>
+        <v>25575</v>
       </c>
       <c r="B81">
-        <v>503</v>
+        <v>375</v>
       </c>
       <c r="C81">
-        <v>0.0249</v>
+        <v>0.0198</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="2">
-        <v>43890</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>28256</v>
+        <v>25855</v>
       </c>
       <c r="B82">
-        <v>514</v>
+        <v>374</v>
       </c>
       <c r="C82">
-        <v>0.0318</v>
+        <v>0.02</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="2">
-        <v>43921</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>40684</v>
+        <v>27710</v>
       </c>
       <c r="B83">
-        <v>490</v>
+        <v>373</v>
       </c>
       <c r="C83">
-        <v>0.0458</v>
+        <v>0.0214</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="2">
-        <v>43951</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>39534</v>
+        <v>27170</v>
       </c>
       <c r="B84">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="C84">
-        <v>0.0445</v>
+        <v>0.0262</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -2352,18 +2352,18 @@
         <v>13</v>
       </c>
       <c r="G84" s="2">
-        <v>43982</v>
+        <v>43496</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>32663</v>
+        <v>25637</v>
       </c>
       <c r="B85">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="C85">
-        <v>0.0368</v>
+        <v>0.0247</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -2375,18 +2375,18 @@
         <v>13</v>
       </c>
       <c r="G85" s="2">
-        <v>44012</v>
+        <v>43524</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>34923</v>
+        <v>26263</v>
       </c>
       <c r="B86">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="C86">
-        <v>0.0393</v>
+        <v>0.0253</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -2398,18 +2398,18 @@
         <v>13</v>
       </c>
       <c r="G86" s="2">
-        <v>44043</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>26502</v>
+        <v>25289</v>
       </c>
       <c r="B87">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="C87">
-        <v>0.0298</v>
+        <v>0.0244</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -2421,18 +2421,18 @@
         <v>13</v>
       </c>
       <c r="G87" s="2">
-        <v>44074</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>26297</v>
+        <v>27471</v>
       </c>
       <c r="B88">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C88">
-        <v>0.0296</v>
+        <v>0.0265</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2444,18 +2444,18 @@
         <v>13</v>
       </c>
       <c r="G88" s="2">
-        <v>44104</v>
+        <v>43616</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>32258</v>
+        <v>23515</v>
       </c>
       <c r="B89">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="C89">
-        <v>0.0363</v>
+        <v>0.0227</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -2467,18 +2467,18 @@
         <v>13</v>
       </c>
       <c r="G89" s="2">
-        <v>44135</v>
+        <v>43646</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>26530</v>
+        <v>23399</v>
       </c>
       <c r="B90">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="C90">
-        <v>0.0299</v>
+        <v>0.0226</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -2490,18 +2490,18 @@
         <v>13</v>
       </c>
       <c r="G90" s="2">
-        <v>44165</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>23730</v>
+        <v>23529</v>
       </c>
       <c r="B91">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="C91">
-        <v>0.0267</v>
+        <v>0.0227</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2513,18 +2513,18 @@
         <v>13</v>
       </c>
       <c r="G91" s="2">
-        <v>44196</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>26888</v>
+        <v>22239</v>
       </c>
       <c r="B92">
-        <v>458</v>
+        <v>503</v>
       </c>
       <c r="C92">
-        <v>0.0303</v>
+        <v>0.0214</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -2536,18 +2536,18 @@
         <v>13</v>
       </c>
       <c r="G92" s="2">
-        <v>44227</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>27065</v>
+        <v>24630</v>
       </c>
       <c r="B93">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="C93">
-        <v>0.0305</v>
+        <v>0.0238</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2559,18 +2559,18 @@
         <v>13</v>
       </c>
       <c r="G93" s="2">
-        <v>44255</v>
+        <v>43769</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>30280</v>
+        <v>22897</v>
       </c>
       <c r="B94">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="C94">
-        <v>0.0341</v>
+        <v>0.0221</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -2582,18 +2582,18 @@
         <v>13</v>
       </c>
       <c r="G94" s="2">
-        <v>44286</v>
+        <v>43799</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>27761</v>
+        <v>17606</v>
       </c>
       <c r="B95">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C95">
-        <v>0.0313</v>
+        <v>0.017</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2605,18 +2605,18 @@
         <v>13</v>
       </c>
       <c r="G95" s="2">
-        <v>44316</v>
+        <v>43830</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>26964</v>
+        <v>21109</v>
       </c>
       <c r="B96">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C96">
-        <v>0.0304</v>
+        <v>0.0204</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2628,18 +2628,18 @@
         <v>13</v>
       </c>
       <c r="G96" s="2">
-        <v>44347</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>26034</v>
+        <v>21493</v>
       </c>
       <c r="B97">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C97">
-        <v>0.0293</v>
+        <v>0.0207</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -2651,18 +2651,18 @@
         <v>13</v>
       </c>
       <c r="G97" s="2">
-        <v>44377</v>
+        <v>43890</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>26103</v>
+        <v>27542</v>
       </c>
       <c r="B98">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C98">
-        <v>0.0294</v>
+        <v>0.0266</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2674,18 +2674,18 @@
         <v>13</v>
       </c>
       <c r="G98" s="2">
-        <v>44408</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>23613</v>
+        <v>39540</v>
       </c>
       <c r="B99">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C99">
-        <v>0.0266</v>
+        <v>0.0381</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -2697,18 +2697,18 @@
         <v>13</v>
       </c>
       <c r="G99" s="2">
-        <v>44439</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>22985</v>
+        <v>38376</v>
       </c>
       <c r="B100">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="C100">
-        <v>0.0259</v>
+        <v>0.037</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2720,570 +2720,570 @@
         <v>13</v>
       </c>
       <c r="G100" s="2">
-        <v>44469</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>28987</v>
+        <v>31553</v>
       </c>
       <c r="B101">
-        <v>758</v>
+        <v>468</v>
       </c>
       <c r="C101">
-        <v>0.0271</v>
+        <v>0.0304</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
         <v>13</v>
       </c>
       <c r="G101" s="2">
-        <v>43496</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>30727</v>
+        <v>34040</v>
       </c>
       <c r="B102">
-        <v>768</v>
+        <v>471</v>
       </c>
       <c r="C102">
-        <v>0.0287</v>
+        <v>0.0328</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F102" t="s">
         <v>13</v>
       </c>
       <c r="G102" s="2">
-        <v>43524</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>32893</v>
+        <v>25470</v>
       </c>
       <c r="B103">
-        <v>791</v>
+        <v>486</v>
       </c>
       <c r="C103">
-        <v>0.0307</v>
+        <v>0.0246</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
       </c>
       <c r="G103" s="2">
-        <v>43555</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>34097</v>
+        <v>25302</v>
       </c>
       <c r="B104">
-        <v>807</v>
+        <v>473</v>
       </c>
       <c r="C104">
-        <v>0.0319</v>
+        <v>0.0244</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
       </c>
       <c r="G104" s="2">
-        <v>43585</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>34598</v>
+        <v>31065</v>
       </c>
       <c r="B105">
-        <v>773</v>
+        <v>481</v>
       </c>
       <c r="C105">
-        <v>0.0323</v>
+        <v>0.03</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
       </c>
       <c r="G105" s="2">
-        <v>43616</v>
+        <v>44135</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>29913</v>
+        <v>25552</v>
       </c>
       <c r="B106">
-        <v>764</v>
+        <v>476</v>
       </c>
       <c r="C106">
-        <v>0.028</v>
+        <v>0.0246</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
       </c>
       <c r="G106" s="2">
-        <v>43646</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>31132</v>
+        <v>22907</v>
       </c>
       <c r="B107">
-        <v>770</v>
+        <v>478</v>
       </c>
       <c r="C107">
-        <v>0.0291</v>
+        <v>0.0221</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
       </c>
       <c r="G107" s="2">
-        <v>43677</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>29807</v>
+        <v>25881</v>
       </c>
       <c r="B108">
-        <v>740</v>
+        <v>449</v>
       </c>
       <c r="C108">
-        <v>0.0279</v>
+        <v>0.025</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
       <c r="G108" s="2">
-        <v>43708</v>
+        <v>44227</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>28485</v>
+        <v>26144</v>
       </c>
       <c r="B109">
-        <v>748</v>
+        <v>463</v>
       </c>
       <c r="C109">
-        <v>0.0266</v>
+        <v>0.0252</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F109" t="s">
         <v>13</v>
       </c>
       <c r="G109" s="2">
-        <v>43738</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>30916</v>
+        <v>29413</v>
       </c>
       <c r="B110">
-        <v>729</v>
+        <v>463</v>
       </c>
       <c r="C110">
-        <v>0.0289</v>
+        <v>0.0284</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
       </c>
       <c r="G110" s="2">
-        <v>43769</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>29027</v>
+        <v>27088</v>
       </c>
       <c r="B111">
-        <v>735</v>
+        <v>475</v>
       </c>
       <c r="C111">
-        <v>0.0271</v>
+        <v>0.0261</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F111" t="s">
         <v>13</v>
       </c>
       <c r="G111" s="2">
-        <v>43799</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>22929</v>
+        <v>26107</v>
       </c>
       <c r="B112">
-        <v>696</v>
+        <v>492</v>
       </c>
       <c r="C112">
-        <v>0.0214</v>
+        <v>0.0252</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
       </c>
       <c r="G112" s="2">
-        <v>43830</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>25020</v>
+        <v>25312</v>
       </c>
       <c r="B113">
-        <v>716</v>
+        <v>485</v>
       </c>
       <c r="C113">
-        <v>0.0234</v>
+        <v>0.0244</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F113" t="s">
         <v>13</v>
       </c>
       <c r="G113" s="2">
-        <v>43861</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>28024</v>
+        <v>25214</v>
       </c>
       <c r="B114">
-        <v>731</v>
+        <v>483</v>
       </c>
       <c r="C114">
-        <v>0.0262</v>
+        <v>0.0243</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
       </c>
       <c r="G114" s="2">
-        <v>43890</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>36724</v>
+        <v>22956</v>
       </c>
       <c r="B115">
-        <v>755</v>
+        <v>466</v>
       </c>
       <c r="C115">
-        <v>0.0343</v>
+        <v>0.0221</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F115" t="s">
         <v>13</v>
       </c>
       <c r="G115" s="2">
-        <v>43921</v>
+        <v>44439</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>46571</v>
+        <v>22225</v>
       </c>
       <c r="B116">
-        <v>682</v>
+        <v>474</v>
       </c>
       <c r="C116">
-        <v>0.0435</v>
+        <v>0.0214</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
         <v>13</v>
       </c>
       <c r="G116" s="2">
-        <v>43951</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>46546</v>
+        <v>22455</v>
       </c>
       <c r="B117">
-        <v>683</v>
+        <v>474</v>
       </c>
       <c r="C117">
-        <v>0.0435</v>
+        <v>0.0217</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
       </c>
       <c r="G117" s="2">
-        <v>43982</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>37216</v>
+        <v>23329</v>
       </c>
       <c r="B118">
-        <v>691</v>
+        <v>460</v>
       </c>
       <c r="C118">
-        <v>0.0348</v>
+        <v>0.0225</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
       </c>
       <c r="G118" s="2">
-        <v>44012</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>35875</v>
+        <v>18830</v>
       </c>
       <c r="B119">
-        <v>689</v>
+        <v>439</v>
       </c>
       <c r="C119">
-        <v>0.0335</v>
+        <v>0.0182</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
       </c>
       <c r="G119" s="2">
-        <v>44043</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>32692</v>
+        <v>19725</v>
       </c>
       <c r="B120">
-        <v>696</v>
+        <v>459</v>
       </c>
       <c r="C120">
-        <v>0.0306</v>
+        <v>0.019</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
       </c>
       <c r="G120" s="2">
-        <v>44074</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>32685</v>
+        <v>20785</v>
       </c>
       <c r="B121">
-        <v>691</v>
+        <v>476</v>
       </c>
       <c r="C121">
-        <v>0.0306</v>
+        <v>0.02</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
       </c>
       <c r="G121" s="2">
-        <v>44104</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>35303</v>
+        <v>24021</v>
       </c>
       <c r="B122">
-        <v>699</v>
+        <v>475</v>
       </c>
       <c r="C122">
-        <v>0.033</v>
+        <v>0.0232</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" t="s">
         <v>13</v>
       </c>
       <c r="G122" s="2">
-        <v>44135</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>32706</v>
+        <v>21618</v>
       </c>
       <c r="B123">
-        <v>678</v>
+        <v>469</v>
       </c>
       <c r="C123">
-        <v>0.0306</v>
+        <v>0.0208</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F123" t="s">
         <v>13</v>
       </c>
       <c r="G123" s="2">
-        <v>44165</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>31307</v>
+        <v>21998</v>
       </c>
       <c r="B124">
-        <v>676</v>
+        <v>474</v>
       </c>
       <c r="C124">
-        <v>0.0293</v>
+        <v>0.0212</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F124" t="s">
         <v>13</v>
       </c>
       <c r="G124" s="2">
-        <v>44196</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>32203</v>
+        <v>28328</v>
       </c>
       <c r="B125">
-        <v>652</v>
+        <v>751</v>
       </c>
       <c r="C125">
-        <v>0.0301</v>
+        <v>0.0227</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
@@ -3295,18 +3295,18 @@
         <v>13</v>
       </c>
       <c r="G125" s="2">
-        <v>44227</v>
+        <v>43496</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>31979</v>
+        <v>30073</v>
       </c>
       <c r="B126">
-        <v>651</v>
+        <v>761</v>
       </c>
       <c r="C126">
-        <v>0.0299</v>
+        <v>0.0241</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
@@ -3318,18 +3318,18 @@
         <v>13</v>
       </c>
       <c r="G126" s="2">
-        <v>44255</v>
+        <v>43524</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>36668</v>
+        <v>32294</v>
       </c>
       <c r="B127">
-        <v>661</v>
+        <v>784</v>
       </c>
       <c r="C127">
-        <v>0.0343</v>
+        <v>0.0259</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -3341,18 +3341,18 @@
         <v>13</v>
       </c>
       <c r="G127" s="2">
-        <v>44286</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>31344</v>
+        <v>33572</v>
       </c>
       <c r="B128">
-        <v>697</v>
+        <v>800</v>
       </c>
       <c r="C128">
-        <v>0.0293</v>
+        <v>0.0269</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
@@ -3364,18 +3364,18 @@
         <v>13</v>
       </c>
       <c r="G128" s="2">
-        <v>44316</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>32337</v>
+        <v>33993</v>
       </c>
       <c r="B129">
-        <v>709</v>
+        <v>765</v>
       </c>
       <c r="C129">
-        <v>0.0302</v>
+        <v>0.0272</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -3387,18 +3387,18 @@
         <v>13</v>
       </c>
       <c r="G129" s="2">
-        <v>44347</v>
+        <v>43616</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>30581</v>
+        <v>29496</v>
       </c>
       <c r="B130">
-        <v>714</v>
+        <v>754</v>
       </c>
       <c r="C130">
-        <v>0.0286</v>
+        <v>0.0236</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -3410,18 +3410,18 @@
         <v>13</v>
       </c>
       <c r="G130" s="2">
-        <v>44377</v>
+        <v>43646</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>30383</v>
+        <v>30634</v>
       </c>
       <c r="B131">
-        <v>695</v>
+        <v>761</v>
       </c>
       <c r="C131">
-        <v>0.0284</v>
+        <v>0.0246</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -3433,18 +3433,18 @@
         <v>13</v>
       </c>
       <c r="G131" s="2">
-        <v>44408</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>28780</v>
+        <v>29316</v>
       </c>
       <c r="B132">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="C132">
-        <v>0.0269</v>
+        <v>0.0235</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
@@ -3456,18 +3456,18 @@
         <v>13</v>
       </c>
       <c r="G132" s="2">
-        <v>44439</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>30580</v>
+        <v>27982</v>
       </c>
       <c r="B133">
-        <v>687</v>
+        <v>740</v>
       </c>
       <c r="C133">
-        <v>0.0286</v>
+        <v>0.0224</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -3479,754 +3479,754 @@
         <v>13</v>
       </c>
       <c r="G133" s="2">
-        <v>44469</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>5398</v>
+        <v>30397</v>
       </c>
       <c r="B134">
-        <v>59</v>
+        <v>719</v>
       </c>
       <c r="C134">
-        <v>0.0325</v>
+        <v>0.0244</v>
       </c>
       <c r="D134" t="s">
         <v>7</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
         <v>13</v>
       </c>
       <c r="G134" s="2">
-        <v>43496</v>
+        <v>43769</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>5249</v>
+        <v>28597</v>
       </c>
       <c r="B135">
-        <v>60</v>
+        <v>724</v>
       </c>
       <c r="C135">
-        <v>0.0316</v>
+        <v>0.0229</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
         <v>13</v>
       </c>
       <c r="G135" s="2">
-        <v>43524</v>
+        <v>43799</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>5547</v>
+        <v>22553</v>
       </c>
       <c r="B136">
-        <v>61</v>
+        <v>688</v>
       </c>
       <c r="C136">
-        <v>0.0334</v>
+        <v>0.0181</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
       </c>
       <c r="E136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
         <v>13</v>
       </c>
       <c r="G136" s="2">
-        <v>43555</v>
+        <v>43830</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>5605</v>
+        <v>24670</v>
       </c>
       <c r="B137">
-        <v>60</v>
+        <v>706</v>
       </c>
       <c r="C137">
-        <v>0.0338</v>
+        <v>0.0198</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
         <v>13</v>
       </c>
       <c r="G137" s="2">
-        <v>43585</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>5543</v>
+        <v>27247</v>
       </c>
       <c r="B138">
-        <v>58</v>
+        <v>722</v>
       </c>
       <c r="C138">
-        <v>0.0334</v>
+        <v>0.0218</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
         <v>13</v>
       </c>
       <c r="G138" s="2">
-        <v>43616</v>
+        <v>43890</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>5194</v>
+        <v>35611</v>
       </c>
       <c r="B139">
-        <v>57</v>
+        <v>745</v>
       </c>
       <c r="C139">
-        <v>0.0313</v>
+        <v>0.0285</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
         <v>13</v>
       </c>
       <c r="G139" s="2">
-        <v>43646</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>5902</v>
+        <v>45701</v>
       </c>
       <c r="B140">
-        <v>60</v>
+        <v>673</v>
       </c>
       <c r="C140">
-        <v>0.0356</v>
+        <v>0.0366</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
         <v>13</v>
       </c>
       <c r="G140" s="2">
-        <v>43677</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>4894</v>
+        <v>45752</v>
       </c>
       <c r="B141">
-        <v>59</v>
+        <v>676</v>
       </c>
       <c r="C141">
-        <v>0.0295</v>
+        <v>0.0367</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
         <v>13</v>
       </c>
       <c r="G141" s="2">
-        <v>43708</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>4598</v>
+        <v>36462</v>
       </c>
       <c r="B142">
-        <v>57</v>
+        <v>682</v>
       </c>
       <c r="C142">
-        <v>0.0277</v>
+        <v>0.0292</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
         <v>13</v>
       </c>
       <c r="G142" s="2">
-        <v>43738</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>4515</v>
+        <v>34936</v>
       </c>
       <c r="B143">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="C143">
-        <v>0.0272</v>
+        <v>0.028</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
         <v>13</v>
       </c>
       <c r="G143" s="2">
-        <v>43769</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>4159</v>
+        <v>31895</v>
       </c>
       <c r="B144">
-        <v>60</v>
+        <v>686</v>
       </c>
       <c r="C144">
-        <v>0.0251</v>
+        <v>0.0256</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
         <v>13</v>
       </c>
       <c r="G144" s="2">
-        <v>43799</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <v>3325</v>
+        <v>31895</v>
       </c>
       <c r="B145">
-        <v>59</v>
+        <v>684</v>
       </c>
       <c r="C145">
-        <v>0.02</v>
+        <v>0.0256</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
         <v>13</v>
       </c>
       <c r="G145" s="2">
-        <v>43830</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <v>3335</v>
+        <v>34466</v>
       </c>
       <c r="B146">
-        <v>57</v>
+        <v>692</v>
       </c>
       <c r="C146">
-        <v>0.0201</v>
+        <v>0.0276</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
         <v>13</v>
       </c>
       <c r="G146" s="2">
-        <v>43861</v>
+        <v>44135</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <v>4488</v>
+        <v>32149</v>
       </c>
       <c r="B147">
-        <v>55</v>
+        <v>673</v>
       </c>
       <c r="C147">
-        <v>0.027</v>
+        <v>0.0258</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
         <v>13</v>
       </c>
       <c r="G147" s="2">
-        <v>43890</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>6850</v>
+        <v>30944</v>
       </c>
       <c r="B148">
-        <v>57</v>
+        <v>667</v>
       </c>
       <c r="C148">
-        <v>0.0413</v>
+        <v>0.0248</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
         <v>13</v>
       </c>
       <c r="G148" s="2">
-        <v>43921</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>7750</v>
+        <v>31769</v>
       </c>
       <c r="B149">
-        <v>53</v>
+        <v>645</v>
       </c>
       <c r="C149">
-        <v>0.0467</v>
+        <v>0.0255</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
         <v>13</v>
       </c>
       <c r="G149" s="2">
-        <v>43951</v>
+        <v>44227</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <v>6797</v>
+        <v>30999</v>
       </c>
       <c r="B150">
-        <v>50</v>
+        <v>642</v>
       </c>
       <c r="C150">
-        <v>0.041</v>
+        <v>0.0248</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
         <v>13</v>
       </c>
       <c r="G150" s="2">
-        <v>43982</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <v>5704</v>
+        <v>35844</v>
       </c>
       <c r="B151">
-        <v>52</v>
+        <v>653</v>
       </c>
       <c r="C151">
-        <v>0.0344</v>
+        <v>0.0287</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
         <v>13</v>
       </c>
       <c r="G151" s="2">
-        <v>44012</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <v>6194</v>
+        <v>30687</v>
       </c>
       <c r="B152">
-        <v>53</v>
+        <v>688</v>
       </c>
       <c r="C152">
-        <v>0.0373</v>
+        <v>0.0246</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
         <v>13</v>
       </c>
       <c r="G152" s="2">
-        <v>44043</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <v>5851</v>
+        <v>31802</v>
       </c>
       <c r="B153">
-        <v>54</v>
+        <v>702</v>
       </c>
       <c r="C153">
-        <v>0.0353</v>
+        <v>0.0255</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
         <v>13</v>
       </c>
       <c r="G153" s="2">
-        <v>44074</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>5373</v>
+        <v>29894</v>
       </c>
       <c r="B154">
-        <v>51</v>
+        <v>706</v>
       </c>
       <c r="C154">
-        <v>0.0324</v>
+        <v>0.024</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
       </c>
       <c r="E154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
         <v>13</v>
       </c>
       <c r="G154" s="2">
-        <v>44104</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>5682</v>
+        <v>29848</v>
       </c>
       <c r="B155">
-        <v>55</v>
+        <v>687</v>
       </c>
       <c r="C155">
-        <v>0.0342</v>
+        <v>0.0239</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
         <v>13</v>
       </c>
       <c r="G155" s="2">
-        <v>44135</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
-        <v>5117</v>
+        <v>28149</v>
       </c>
       <c r="B156">
-        <v>56</v>
+        <v>694</v>
       </c>
       <c r="C156">
-        <v>0.0308</v>
+        <v>0.0226</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
         <v>13</v>
       </c>
       <c r="G156" s="2">
-        <v>44165</v>
+        <v>44439</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
-        <v>4628</v>
+        <v>29898</v>
       </c>
       <c r="B157">
-        <v>52</v>
+        <v>679</v>
       </c>
       <c r="C157">
-        <v>0.0279</v>
+        <v>0.024</v>
       </c>
       <c r="D157" t="s">
         <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
         <v>13</v>
       </c>
       <c r="G157" s="2">
-        <v>44196</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
-        <v>4164</v>
+        <v>28911</v>
       </c>
       <c r="B158">
-        <v>50</v>
+        <v>669</v>
       </c>
       <c r="C158">
-        <v>0.0251</v>
+        <v>0.0232</v>
       </c>
       <c r="D158" t="s">
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
         <v>13</v>
       </c>
       <c r="G158" s="2">
-        <v>44227</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
-        <v>3801</v>
+        <v>26180</v>
       </c>
       <c r="B159">
-        <v>49</v>
+        <v>673</v>
       </c>
       <c r="C159">
-        <v>0.0229</v>
+        <v>0.021</v>
       </c>
       <c r="D159" t="s">
         <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
         <v>13</v>
       </c>
       <c r="G159" s="2">
-        <v>44255</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
-        <v>4504</v>
+        <v>22457</v>
       </c>
       <c r="B160">
-        <v>54</v>
+        <v>634</v>
       </c>
       <c r="C160">
-        <v>0.0271</v>
+        <v>0.018</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
         <v>13</v>
       </c>
       <c r="G160" s="2">
-        <v>44286</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>4394</v>
+        <v>21829</v>
       </c>
       <c r="B161">
-        <v>53</v>
+        <v>617</v>
       </c>
       <c r="C161">
-        <v>0.0265</v>
+        <v>0.0175</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
         <v>13</v>
       </c>
       <c r="G161" s="2">
-        <v>44316</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>4842</v>
+        <v>23342</v>
       </c>
       <c r="B162">
-        <v>54</v>
+        <v>648</v>
       </c>
       <c r="C162">
-        <v>0.0292</v>
+        <v>0.0187</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
         <v>13</v>
       </c>
       <c r="G162" s="2">
-        <v>44347</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>4732</v>
+        <v>26043</v>
       </c>
       <c r="B163">
-        <v>53</v>
+        <v>660</v>
       </c>
       <c r="C163">
-        <v>0.0285</v>
+        <v>0.0209</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
         <v>13</v>
       </c>
       <c r="G163" s="2">
-        <v>44377</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>4527</v>
+        <v>23889</v>
       </c>
       <c r="B164">
-        <v>55</v>
+        <v>682</v>
       </c>
       <c r="C164">
-        <v>0.0273</v>
+        <v>0.0191</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
         <v>13</v>
       </c>
       <c r="G164" s="2">
-        <v>44408</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>3513</v>
+        <v>26250</v>
       </c>
       <c r="B165">
-        <v>53</v>
+        <v>687</v>
       </c>
       <c r="C165">
-        <v>0.0212</v>
+        <v>0.021</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
         <v>13</v>
       </c>
       <c r="G165" s="2">
-        <v>44439</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>3732</v>
+        <v>5387</v>
       </c>
       <c r="B166">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C166">
-        <v>0.0225</v>
+        <v>0.028</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
@@ -4238,18 +4238,18 @@
         <v>13</v>
       </c>
       <c r="G166" s="2">
-        <v>44469</v>
+        <v>43496</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>1</v>
+        <v>5213</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>0.0271</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -4261,7 +4261,904 @@
         <v>13</v>
       </c>
       <c r="G167" s="2">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>5491</v>
+      </c>
+      <c r="B168">
+        <v>60</v>
+      </c>
+      <c r="C168">
+        <v>0.0286</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" s="2">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>5548</v>
+      </c>
+      <c r="B169">
+        <v>59</v>
+      </c>
+      <c r="C169">
+        <v>0.0289</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" s="2">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>5497</v>
+      </c>
+      <c r="B170">
+        <v>57</v>
+      </c>
+      <c r="C170">
+        <v>0.0286</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" s="2">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>5143</v>
+      </c>
+      <c r="B171">
+        <v>56</v>
+      </c>
+      <c r="C171">
+        <v>0.0268</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" s="2">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>5826</v>
+      </c>
+      <c r="B172">
+        <v>59</v>
+      </c>
+      <c r="C172">
+        <v>0.0303</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" s="2">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>4853</v>
+      </c>
+      <c r="B173">
+        <v>58</v>
+      </c>
+      <c r="C173">
+        <v>0.0253</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" s="2">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>4520</v>
+      </c>
+      <c r="B174">
+        <v>56</v>
+      </c>
+      <c r="C174">
+        <v>0.0235</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" s="2">
+        <v>43738</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>4488</v>
+      </c>
+      <c r="B175">
+        <v>60</v>
+      </c>
+      <c r="C175">
+        <v>0.0234</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" s="2">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>4132</v>
+      </c>
+      <c r="B176">
+        <v>59</v>
+      </c>
+      <c r="C176">
+        <v>0.0215</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" s="2">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>3282</v>
+      </c>
+      <c r="B177">
+        <v>58</v>
+      </c>
+      <c r="C177">
+        <v>0.0171</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>3298</v>
+      </c>
+      <c r="B178">
+        <v>56</v>
+      </c>
+      <c r="C178">
+        <v>0.0172</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" s="2">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>4407</v>
+      </c>
+      <c r="B179">
+        <v>54</v>
+      </c>
+      <c r="C179">
+        <v>0.0229</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" s="2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>6714</v>
+      </c>
+      <c r="B180">
+        <v>56</v>
+      </c>
+      <c r="C180">
+        <v>0.0349</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" s="2">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>7665</v>
+      </c>
+      <c r="B181">
+        <v>52</v>
+      </c>
+      <c r="C181">
+        <v>0.0399</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" s="2">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>6683</v>
+      </c>
+      <c r="B182">
+        <v>49</v>
+      </c>
+      <c r="C182">
+        <v>0.0348</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" s="2">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>5640</v>
+      </c>
+      <c r="B183">
+        <v>51</v>
+      </c>
+      <c r="C183">
+        <v>0.0294</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>6153</v>
+      </c>
+      <c r="B184">
+        <v>52</v>
+      </c>
+      <c r="C184">
+        <v>0.032</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" s="2">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>5775</v>
+      </c>
+      <c r="B185">
+        <v>53</v>
+      </c>
+      <c r="C185">
+        <v>0.0301</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" s="2">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>5306</v>
+      </c>
+      <c r="B186">
+        <v>50</v>
+      </c>
+      <c r="C186">
+        <v>0.0276</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" s="2">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>5638</v>
+      </c>
+      <c r="B187">
+        <v>54</v>
+      </c>
+      <c r="C187">
+        <v>0.0293</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" s="2">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>5071</v>
+      </c>
+      <c r="B188">
+        <v>55</v>
+      </c>
+      <c r="C188">
+        <v>0.0264</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" s="2">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>4597</v>
+      </c>
+      <c r="B189">
+        <v>51</v>
+      </c>
+      <c r="C189">
+        <v>0.0239</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>4119</v>
+      </c>
+      <c r="B190">
+        <v>49</v>
+      </c>
+      <c r="C190">
+        <v>0.0214</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" s="2">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>3774</v>
+      </c>
+      <c r="B191">
+        <v>48</v>
+      </c>
+      <c r="C191">
+        <v>0.0196</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" s="2">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>4446</v>
+      </c>
+      <c r="B192">
+        <v>53</v>
+      </c>
+      <c r="C192">
+        <v>0.0231</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192" s="2">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>4341</v>
+      </c>
+      <c r="B193">
+        <v>52</v>
+      </c>
+      <c r="C193">
+        <v>0.0226</v>
+      </c>
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" s="2">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>4768</v>
+      </c>
+      <c r="B194">
+        <v>53</v>
+      </c>
+      <c r="C194">
+        <v>0.0248</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" t="s">
+        <v>13</v>
+      </c>
+      <c r="G194" s="2">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>4671</v>
+      </c>
+      <c r="B195">
+        <v>51</v>
+      </c>
+      <c r="C195">
+        <v>0.0243</v>
+      </c>
+      <c r="D195" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195" s="2">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>4470</v>
+      </c>
+      <c r="B196">
+        <v>54</v>
+      </c>
+      <c r="C196">
+        <v>0.0233</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>3473</v>
+      </c>
+      <c r="B197">
+        <v>53</v>
+      </c>
+      <c r="C197">
+        <v>0.0181</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" t="s">
+        <v>13</v>
+      </c>
+      <c r="G197" s="2">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>3655</v>
+      </c>
+      <c r="B198">
+        <v>53</v>
+      </c>
+      <c r="C198">
+        <v>0.019</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" t="s">
+        <v>13</v>
+      </c>
+      <c r="G198" s="2">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>3853</v>
+      </c>
+      <c r="B199">
+        <v>56</v>
+      </c>
+      <c r="C199">
+        <v>0.0201</v>
+      </c>
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" t="s">
+        <v>13</v>
+      </c>
+      <c r="G199" s="2">
         <v>44500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>3727</v>
+      </c>
+      <c r="B200">
+        <v>51</v>
+      </c>
+      <c r="C200">
+        <v>0.0194</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" t="s">
+        <v>13</v>
+      </c>
+      <c r="G200" s="2">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>3286</v>
+      </c>
+      <c r="B201">
+        <v>51</v>
+      </c>
+      <c r="C201">
+        <v>0.0171</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" t="s">
+        <v>13</v>
+      </c>
+      <c r="G201" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>3310</v>
+      </c>
+      <c r="B202">
+        <v>50</v>
+      </c>
+      <c r="C202">
+        <v>0.0172</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" t="s">
+        <v>13</v>
+      </c>
+      <c r="G202" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>3387</v>
+      </c>
+      <c r="B203">
+        <v>56</v>
+      </c>
+      <c r="C203">
+        <v>0.0176</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" t="s">
+        <v>13</v>
+      </c>
+      <c r="G203" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>3157</v>
+      </c>
+      <c r="B204">
+        <v>54</v>
+      </c>
+      <c r="C204">
+        <v>0.0164</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" t="s">
+        <v>13</v>
+      </c>
+      <c r="G204" s="2">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>3610</v>
+      </c>
+      <c r="B205">
+        <v>55</v>
+      </c>
+      <c r="C205">
+        <v>0.0188</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" t="s">
+        <v>13</v>
+      </c>
+      <c r="G205" s="2">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>3678</v>
+      </c>
+      <c r="B206">
+        <v>53</v>
+      </c>
+      <c r="C206">
+        <v>0.0191</v>
+      </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" t="s">
+        <v>13</v>
+      </c>
+      <c r="G206" s="2">
+        <v>44712</v>
       </c>
     </row>
   </sheetData>
